--- a/Example/SKA-100.xlsx
+++ b/Example/SKA-100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Programming\BOM program\python-BOM\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFF42C6-3867-4240-B70D-BDD6163DF3B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2C2BC8-84B8-49EF-BEF0-14F61D0CF3DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12675" yWindow="7800" windowWidth="16020" windowHeight="8355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13605" yWindow="210" windowWidth="15105" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,19 +33,19 @@
     <t>QTY</t>
   </si>
   <si>
-    <t>198459-01</t>
-  </si>
-  <si>
     <t>WH-01</t>
   </si>
   <si>
-    <t>198463-01</t>
-  </si>
-  <si>
-    <t>198457-01</t>
-  </si>
-  <si>
-    <t>198458-01</t>
+    <t>TR-01</t>
+  </si>
+  <si>
+    <t>SK1002-01</t>
+  </si>
+  <si>
+    <t>SK1005-01</t>
+  </si>
+  <si>
+    <t>SK1007-01</t>
   </si>
 </sst>
 </file>
@@ -392,12 +392,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
   </cols>
@@ -412,7 +412,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
@@ -428,7 +428,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
